--- a/SNPE-Demo-Application-Summary.xlsx
+++ b/SNPE-Demo-Application-Summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="222">
   <si>
     <t>Table of Contents</t>
   </si>
@@ -290,31 +290,19 @@
     <t>Inception_v3</t>
   </si>
   <si>
-    <t>https://thundersoft.feishu.cn/file/boxcnHFRLqnt3cgkNXTrCCTr9gh</t>
+    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model</t>
   </si>
   <si>
     <t>MobileNet-SSD</t>
   </si>
   <si>
-    <t>https://thundersoft.feishu.cn/file/boxcnnIIuIJuwkbaH6Q9LTDMalg</t>
-  </si>
-  <si>
     <t>Goturn</t>
   </si>
   <si>
-    <t>https://thundersoft.feishu.cn/file/boxcn18fkZfhB3PQjaDTny2zqcd</t>
-  </si>
-  <si>
     <t>Dlib</t>
   </si>
   <si>
-    <t>https://thundersoft.feishu.cn/file/boxcnL6SEuCXPYHt2p5KRpnQ1Fd</t>
-  </si>
-  <si>
     <t>VGG-19</t>
-  </si>
-  <si>
-    <t>https://thundersoft.feishu.cn/file/boxcnUI12CfLTtTPtP78X3cV1Re</t>
   </si>
   <si>
     <t>2 MOD-Model</t>
@@ -909,10 +897,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1017,10 +1005,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1032,22 +1021,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1062,25 +1036,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,6 +1067,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1109,9 +1097,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,15 +1112,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1148,7 +1128,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,7 +1169,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1247,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,25 +1301,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,133 +1349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,6 +1600,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1638,6 +1650,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1652,189 +1679,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1953,7 +1941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="41" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="41" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1">
@@ -2626,32 +2614,32 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" ht="21.75" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" ht="20.25" customHeight="1" spans="2:2">
       <c r="B8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" ht="409" customHeight="1" spans="2:2">
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" ht="246" customHeight="1" spans="2:2">
@@ -2659,17 +2647,17 @@
     </row>
     <row r="11" ht="23.25" customHeight="1" spans="2:2">
       <c r="B11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" ht="21" customHeight="1" spans="2:2">
       <c r="B12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" ht="199.5" customHeight="1" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" ht="356.25" customHeight="1" spans="2:2">
@@ -2677,53 +2665,53 @@
     </row>
     <row r="15" ht="21" customHeight="1" spans="2:2">
       <c r="B15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" ht="35.25" customHeight="1" spans="2:2">
       <c r="B18" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" ht="48" customHeight="1" spans="2:2">
       <c r="B19" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" ht="23.25" customHeight="1" spans="2:2">
       <c r="B20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" ht="272.25" customHeight="1" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1"/>
     <row r="23" ht="29.25" customHeight="1" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" ht="153.75" customHeight="1" spans="2:2">
@@ -2731,57 +2719,57 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -2789,7 +2777,7 @@
     </row>
     <row r="41" ht="256.5" spans="2:2">
       <c r="B41" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3501,7 +3489,7 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3559,7 +3547,7 @@
         <v>89</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
@@ -3567,10 +3555,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:4">
@@ -3578,10 +3566,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:4">
@@ -3589,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:4">
@@ -3652,11 +3640,11 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" display="https://thundersoft.feishu.cn/file/boxcnHFRLqnt3cgkNXTrCCTr9gh" tooltip="https://thundersoft.feishu.cn/file/boxcnHFRLqnt3cgkNXTrCCTr9gh"/>
-    <hyperlink ref="D8" r:id="rId2" display="https://thundersoft.feishu.cn/file/boxcnnIIuIJuwkbaH6Q9LTDMalg" tooltip="https://thundersoft.feishu.cn/file/boxcnnIIuIJuwkbaH6Q9LTDMalg"/>
-    <hyperlink ref="D9" r:id="rId3" display="https://thundersoft.feishu.cn/file/boxcn18fkZfhB3PQjaDTny2zqcd" tooltip="https://thundersoft.feishu.cn/file/boxcn18fkZfhB3PQjaDTny2zqcd"/>
-    <hyperlink ref="D11" r:id="rId4" display="https://thundersoft.feishu.cn/file/boxcnUI12CfLTtTPtP78X3cV1Re"/>
-    <hyperlink ref="D10" r:id="rId5" display="https://thundersoft.feishu.cn/file/boxcnL6SEuCXPYHt2p5KRpnQ1Fd"/>
+    <hyperlink ref="D7" r:id="rId1" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model"/>
+    <hyperlink ref="D9" r:id="rId1" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model"/>
+    <hyperlink ref="D11" r:id="rId1" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model"/>
+    <hyperlink ref="D10" r:id="rId1" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3682,63 +3670,63 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customHeight="1"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="2:2">
       <c r="B8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" ht="23.25" customHeight="1" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" s="12" customFormat="1" spans="2:10">
       <c r="B18" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>29</v>
@@ -3754,10 +3742,10 @@
     <row r="19" ht="18" customHeight="1" spans="1:10">
       <c r="A19" s="6"/>
       <c r="B19" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -3769,58 +3757,58 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="2:3">
       <c r="B20" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" ht="20.25" customHeight="1" spans="2:3">
       <c r="B21" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" ht="20.25" customHeight="1" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" ht="20.25" customHeight="1" spans="2:4">
       <c r="B24" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="2:2">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" ht="23.25" customHeight="1" spans="2:2">
       <c r="B28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="2:2">
       <c r="B29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3848,72 +3836,72 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:2">
       <c r="B4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="30" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" ht="19.5" customHeight="1" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" ht="20.25" customHeight="1" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" ht="21.75" customHeight="1" spans="2:5">
       <c r="B21" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>29</v>
@@ -3923,50 +3911,50 @@
     </row>
     <row r="22" ht="15" customHeight="1" spans="2:3">
       <c r="B22" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:3">
       <c r="B24" s="21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="2:3">
       <c r="B26" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" ht="35.25" customHeight="1" spans="2:3">
       <c r="B27" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3995,58 +3983,58 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="2:2">
       <c r="B4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1"/>
     <row r="6" ht="22.5" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="1" spans="2:5">
       <c r="B18" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>29</v>
@@ -4056,58 +4044,58 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:3">
       <c r="B19" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:3">
       <c r="B20" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:3">
       <c r="B21" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="2:3">
       <c r="B24" s="21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4135,29 +4123,29 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:2">
       <c r="B5" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1"/>
     <row r="7" ht="20" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:1">
@@ -4165,45 +4153,45 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:2">
       <c r="B9" s="25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:2">
       <c r="B10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:2">
       <c r="B11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1"/>
     <row r="13" ht="20" customHeight="1" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1"/>
     <row r="15" ht="20" customHeight="1" spans="2:2">
       <c r="B15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1"/>
     <row r="17" ht="20" customHeight="1" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:1">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" s="12" customFormat="1" ht="20" customHeight="1" spans="2:8">
       <c r="B19" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>29</v>
@@ -4217,10 +4205,10 @@
     <row r="20" ht="20" customHeight="1" spans="1:8">
       <c r="A20" s="6"/>
       <c r="B20" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="26"/>
@@ -4230,58 +4218,58 @@
     </row>
     <row r="21" ht="36" customHeight="1" spans="2:3">
       <c r="B21" s="21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="2:3">
       <c r="B24" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:3">
       <c r="B26" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="2:3">
       <c r="B27" s="21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1"/>
@@ -4316,29 +4304,29 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:2">
       <c r="B5" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1"/>
     <row r="7" ht="20" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:1">
@@ -4346,76 +4334,76 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:2">
       <c r="B9" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:2">
       <c r="B10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:2">
       <c r="B11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:2">
       <c r="B12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="2:2">
       <c r="B13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:2">
       <c r="B14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:2">
       <c r="B15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:2">
       <c r="B16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:2">
       <c r="B17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1"/>
     <row r="19" ht="20" customHeight="1"/>
     <row r="20" ht="20" customHeight="1" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1"/>
     <row r="22" ht="20" customHeight="1" spans="2:2">
       <c r="B22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1"/>
     <row r="24" ht="20" customHeight="1" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:1">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" s="12" customFormat="1" ht="20" customHeight="1" spans="2:8">
       <c r="B26" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>29</v>
@@ -4429,10 +4417,10 @@
     <row r="27" ht="20" customHeight="1" spans="1:8">
       <c r="A27" s="6"/>
       <c r="B27" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -4442,34 +4430,34 @@
     </row>
     <row r="28" ht="20" customHeight="1" spans="2:3">
       <c r="B28" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" ht="39" customHeight="1" spans="2:3">
       <c r="B29" s="21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="2:3">
       <c r="B30" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:3">
       <c r="B31" s="21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1"/>

--- a/SNPE-Demo-Application-Summary.xlsx
+++ b/SNPE-Demo-Application-Summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="224">
   <si>
     <t>Table of Contents</t>
   </si>
@@ -287,10 +287,16 @@
     <t>Model Link</t>
   </si>
   <si>
+    <t>Entry Code</t>
+  </si>
+  <si>
     <t>Inception_v3</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model</t>
+  </si>
+  <si>
+    <t>ycjk</t>
   </si>
   <si>
     <t>MobileNet-SSD</t>
@@ -898,9 +904,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1005,16 +1011,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,16 +1041,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,7 +1090,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,33 +1119,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1134,9 +1141,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1169,7 +1175,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,24 +1211,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1223,19 +1223,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,31 +1253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,7 +1295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,19 +1331,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,7 +1360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1449,6 +1455,30 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1595,15 +1625,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1624,6 +1645,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1634,6 +1664,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1664,172 +1709,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1941,8 +1971,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="41" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
@@ -1953,7 +1989,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1965,13 +2001,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1980,22 +2016,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2013,40 +2049,40 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2500,84 +2536,84 @@
   </cols>
   <sheetData>
     <row r="2" ht="20.25" spans="2:3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="77" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="2:3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="2:3">
-      <c r="B7" s="74"/>
-      <c r="C7" s="75" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="77" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B8" s="74"/>
-      <c r="C8" s="75" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="77" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="2:3">
-      <c r="B9" s="74"/>
-      <c r="C9" s="75" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="77" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" ht="21.75" customHeight="1" spans="2:3">
-      <c r="B10" s="74"/>
-      <c r="C10" s="75" t="s">
+      <c r="B10" s="76"/>
+      <c r="C10" s="77" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="2:3">
-      <c r="B11" s="74"/>
-      <c r="C11" s="75" t="s">
+      <c r="B11" s="76"/>
+      <c r="C11" s="77" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" ht="21.75" customHeight="1" spans="2:3">
-      <c r="B12" s="74"/>
-      <c r="C12" s="75" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="77" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="2:3">
-      <c r="B13" s="74"/>
-      <c r="C13" s="75" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2614,32 +2650,32 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" ht="21.75" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" ht="20.25" customHeight="1" spans="2:2">
       <c r="B8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" ht="409" customHeight="1" spans="2:2">
       <c r="B9" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" ht="246" customHeight="1" spans="2:2">
@@ -2647,17 +2683,17 @@
     </row>
     <row r="11" ht="23.25" customHeight="1" spans="2:2">
       <c r="B11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" ht="21" customHeight="1" spans="2:2">
       <c r="B12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" ht="199.5" customHeight="1" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" ht="356.25" customHeight="1" spans="2:2">
@@ -2665,53 +2701,53 @@
     </row>
     <row r="15" ht="21" customHeight="1" spans="2:2">
       <c r="B15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" ht="35.25" customHeight="1" spans="2:2">
       <c r="B18" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" ht="48" customHeight="1" spans="2:2">
       <c r="B19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" ht="23.25" customHeight="1" spans="2:2">
       <c r="B20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" ht="272.25" customHeight="1" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1"/>
     <row r="23" ht="29.25" customHeight="1" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" ht="153.75" customHeight="1" spans="2:2">
@@ -2719,57 +2755,57 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -2777,7 +2813,7 @@
     </row>
     <row r="41" ht="256.5" spans="2:2">
       <c r="B41" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2829,268 +2865,268 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A1" s="50"/>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:6">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="65"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:6">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="68" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:6">
-      <c r="A4" s="55"/>
-      <c r="B4" s="57">
+      <c r="A4" s="57"/>
+      <c r="B4" s="59">
         <v>1</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="60">
         <v>44375</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="70" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:6">
-      <c r="A5" s="55"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="69"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:6">
-      <c r="A6" s="55"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="69"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:6">
-      <c r="A7" s="55"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="69"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="71"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:6">
-      <c r="A8" s="55"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="69"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:6">
-      <c r="A9" s="55"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="69"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="71"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:6">
-      <c r="A10" s="55"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="69"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="71"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:6">
-      <c r="A11" s="55"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="69"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="71"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:6">
-      <c r="A12" s="55"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="69"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:6">
-      <c r="A13" s="55"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="71"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:6">
-      <c r="A14" s="55"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="69"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="71"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:6">
-      <c r="A15" s="55"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="70"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:6">
-      <c r="A16" s="55"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="70"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="72"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:6">
-      <c r="A17" s="55"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="70"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="72"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:6">
-      <c r="A18" s="55"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="70"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="72"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:6">
-      <c r="A19" s="55"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="70"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="72"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:6">
-      <c r="A20" s="55"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="70"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="72"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:6">
-      <c r="A21" s="55"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="70"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="72"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:6">
-      <c r="A22" s="55"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="70"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="72"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:6">
-      <c r="A23" s="55"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="70"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="72"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:6">
-      <c r="A24" s="55"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="70"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="72"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:6">
-      <c r="A25" s="55"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="70"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="72"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:6">
-      <c r="A26" s="55"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="70"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="72"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:6">
-      <c r="A27" s="55"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="70"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="72"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:6">
-      <c r="A28" s="55"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="70"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="72"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:6">
-      <c r="A29" s="55"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="70"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="72"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:6">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -3121,7 +3157,7 @@
     </row>
     <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:2">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3173,31 +3209,31 @@
     </row>
     <row r="16" ht="20" customHeight="1"/>
     <row r="17" ht="20" customHeight="1" spans="2:5">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="49"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:3">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="45" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:3">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="21"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:3">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -3205,82 +3241,82 @@
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:3">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="46" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="21"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:3">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="2:5">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="44" t="s">
         <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="49"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="2:3">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="21"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="2:3">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="42"/>
+      <c r="C25" s="44"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:3">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="2:3">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="2:3">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="47"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="2:3">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="44"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="2:3">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:3">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="44" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3288,7 +3324,7 @@
       <c r="B32" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="47"/>
+      <c r="C32" s="49"/>
     </row>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1" spans="1:1">
@@ -3338,12 +3374,12 @@
       <c r="F44" s="15"/>
     </row>
     <row r="45" ht="20" customHeight="1" spans="2:2">
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="40" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="2:2">
-      <c r="B46" s="38"/>
+      <c r="B46" s="40"/>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:1">
       <c r="A47" s="2" t="s">
@@ -3365,7 +3401,7 @@
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:3">
       <c r="A51" s="2"/>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="50" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="34" t="s">
@@ -3461,7 +3497,7 @@
       </c>
     </row>
     <row r="67" ht="20" customHeight="1" spans="2:2">
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="40" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3487,17 +3523,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="46.875" customWidth="1"/>
     <col min="4" max="4" width="102.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
@@ -3517,7 +3554,7 @@
       </c>
     </row>
     <row r="5" ht="20" customHeight="1"/>
-    <row r="6" ht="20" customHeight="1" spans="2:4">
+    <row r="6" ht="20" customHeight="1" spans="2:5">
       <c r="B6" s="33" t="s">
         <v>84</v>
       </c>
@@ -3527,101 +3564,119 @@
       <c r="D6" s="33" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="E6" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="20" customHeight="1" spans="2:5">
       <c r="B7" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="2:4">
+        <v>89</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="2:5">
       <c r="B8" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="2:4">
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:5">
       <c r="B9" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="2:4">
+        <v>89</v>
+      </c>
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:5">
       <c r="B10" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="2:4">
+        <v>93</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:5">
       <c r="B11" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="2:4">
+        <v>94</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="2:5">
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="21"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="2:4">
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="2:5">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="21"/>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="2:4">
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="2:5">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="21"/>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="2:4">
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="2:5">
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="21"/>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="2:4">
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="2:5">
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="21"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="2:4">
+      <c r="E16" s="38"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:5">
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
       <c r="D17" s="21"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="2:4">
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:5">
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="21"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="2:4">
+      <c r="E18" s="38"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:5">
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
       <c r="D19" s="21"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" ht="20" customHeight="1"/>
     <row r="21" ht="20" customHeight="1"/>
@@ -3639,6 +3694,9 @@
     <row r="33" ht="20" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="E7:E19"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model"/>
     <hyperlink ref="D8" r:id="rId1" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model"/>
@@ -3670,63 +3728,63 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customHeight="1"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="2:2">
       <c r="B8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" ht="23.25" customHeight="1" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" s="12" customFormat="1" spans="2:10">
       <c r="B18" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>29</v>
@@ -3742,10 +3800,10 @@
     <row r="19" ht="18" customHeight="1" spans="1:10">
       <c r="A19" s="6"/>
       <c r="B19" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -3757,58 +3815,58 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="2:3">
       <c r="B20" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="20.25" customHeight="1" spans="2:3">
       <c r="B21" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" ht="20.25" customHeight="1" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" ht="20.25" customHeight="1" spans="2:4">
       <c r="B24" s="21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="2:2">
       <c r="B27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" ht="23.25" customHeight="1" spans="2:2">
       <c r="B28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="2:2">
       <c r="B29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3836,72 +3894,72 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:2">
       <c r="B4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" ht="19.5" customHeight="1" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" ht="20.25" customHeight="1" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" ht="21.75" customHeight="1" spans="2:5">
       <c r="B21" s="27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>29</v>
@@ -3911,50 +3969,50 @@
     </row>
     <row r="22" ht="15" customHeight="1" spans="2:3">
       <c r="B22" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:3">
       <c r="B24" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="2:3">
       <c r="B26" s="21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" ht="35.25" customHeight="1" spans="2:3">
       <c r="B27" s="21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3983,58 +4041,58 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="2:2">
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1"/>
     <row r="6" ht="22.5" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="1" spans="2:5">
       <c r="B18" s="27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>29</v>
@@ -4044,58 +4102,58 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:3">
       <c r="B19" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:3">
       <c r="B20" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:3">
       <c r="B21" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="2:3">
       <c r="B24" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4123,29 +4181,29 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:2">
       <c r="B5" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1"/>
     <row r="7" ht="20" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:1">
@@ -4153,45 +4211,45 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:2">
       <c r="B9" s="25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:2">
       <c r="B10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:2">
       <c r="B11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1"/>
     <row r="13" ht="20" customHeight="1" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1"/>
     <row r="15" ht="20" customHeight="1" spans="2:2">
       <c r="B15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1"/>
     <row r="17" ht="20" customHeight="1" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:1">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" s="12" customFormat="1" ht="20" customHeight="1" spans="2:8">
       <c r="B19" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>29</v>
@@ -4205,10 +4263,10 @@
     <row r="20" ht="20" customHeight="1" spans="1:8">
       <c r="A20" s="6"/>
       <c r="B20" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="26"/>
@@ -4218,58 +4276,58 @@
     </row>
     <row r="21" ht="36" customHeight="1" spans="2:3">
       <c r="B21" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="2:3">
       <c r="B24" s="21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:3">
       <c r="B26" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="2:3">
       <c r="B27" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1"/>
@@ -4304,29 +4362,29 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:2">
       <c r="B5" s="14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1"/>
     <row r="7" ht="20" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:1">
@@ -4334,76 +4392,76 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:2">
       <c r="B9" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:2">
       <c r="B10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:2">
       <c r="B11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:2">
       <c r="B12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="2:2">
       <c r="B13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:2">
       <c r="B14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:2">
       <c r="B15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:2">
       <c r="B16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:2">
       <c r="B17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1"/>
     <row r="19" ht="20" customHeight="1"/>
     <row r="20" ht="20" customHeight="1" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1"/>
     <row r="22" ht="20" customHeight="1" spans="2:2">
       <c r="B22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1"/>
     <row r="24" ht="20" customHeight="1" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:1">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" s="12" customFormat="1" ht="20" customHeight="1" spans="2:8">
       <c r="B26" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>29</v>
@@ -4417,10 +4475,10 @@
     <row r="27" ht="20" customHeight="1" spans="1:8">
       <c r="A27" s="6"/>
       <c r="B27" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -4430,34 +4488,34 @@
     </row>
     <row r="28" ht="20" customHeight="1" spans="2:3">
       <c r="B28" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" ht="39" customHeight="1" spans="2:3">
       <c r="B29" s="21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="2:3">
       <c r="B30" s="21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:3">
       <c r="B31" s="21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1"/>

--- a/SNPE-Demo-Application-Summary.xlsx
+++ b/SNPE-Demo-Application-Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12600" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="26970" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -16,15 +16,16 @@
     <sheet name="5 SOT-Model" sheetId="5" r:id="rId7"/>
     <sheet name="6 AGD-Model" sheetId="11" r:id="rId8"/>
     <sheet name="7 HPR-Model" sheetId="12" r:id="rId9"/>
-    <sheet name="8 Key-Points" sheetId="8" r:id="rId10"/>
-    <sheet name="WpsReserved_CellImgList" sheetId="10" state="veryHidden" r:id="rId11"/>
+    <sheet name="8 RB5-Model" sheetId="14" r:id="rId10"/>
+    <sheet name="9 Key-Points" sheetId="8" r:id="rId11"/>
+    <sheet name="WpsReserved_CellImgList" sheetId="10" state="veryHidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="237">
   <si>
     <t>Table of Contents</t>
   </si>
@@ -53,7 +54,10 @@
     <t>7 HPR-Model</t>
   </si>
   <si>
-    <t>8 Key-Points</t>
+    <t>8 RB5-Model</t>
+  </si>
+  <si>
+    <t>9 Key-Points</t>
   </si>
   <si>
     <t>Version</t>
@@ -80,6 +84,9 @@
     <t>yuandekun/zhanglei</t>
   </si>
   <si>
+    <t>add RB5-Model sheet</t>
+  </si>
+  <si>
     <t>Distinguish: N=New    /    U=Update    /    D=Delete</t>
   </si>
   <si>
@@ -302,13 +309,31 @@
     <t>MobileNet-SSD</t>
   </si>
   <si>
+    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FLPR-Model</t>
+  </si>
+  <si>
     <t>Goturn</t>
   </si>
   <si>
+    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FSOT-Model</t>
+  </si>
+  <si>
     <t>Dlib</t>
   </si>
   <si>
+    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FAGD-MOdel</t>
+  </si>
+  <si>
     <t>VGG-19</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FHPR-Model</t>
+  </si>
+  <si>
+    <t>MobileNet</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FRB5</t>
   </si>
   <si>
     <t>2 MOD-Model</t>
@@ -604,6 +629,21 @@
   </si>
   <si>
     <t xml:space="preserve">This layer concatenates multiple inputs into a single output. </t>
+  </si>
+  <si>
+    <t>This sheet describes the SNPE DLC model files from the RB5 platform.</t>
+  </si>
+  <si>
+    <t>8.1 Network Introduce</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>8.2 Network structure</t>
+  </si>
+  <si>
+    <t>8.3 Core Layer</t>
   </si>
   <si>
     <t>Key-Points</t>
@@ -908,7 +948,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,6 +1009,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="20"/>
@@ -1018,8 +1074,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,14 +1090,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1049,24 +1098,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,17 +1128,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,7 +1152,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,16 +1167,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1141,8 +1180,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,7 +1223,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,13 +1271,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,97 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1307,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,19 +1367,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,7 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,13 +1418,13 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1398,26 +1446,26 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1433,14 +1481,14 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1483,7 +1531,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
@@ -1492,27 +1540,27 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1621,11 +1669,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1647,9 +1725,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1669,43 +1749,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1714,384 +1762,390 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="23" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="25" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="28" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="41" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="41" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="41" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="41" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="41" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="41" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2183,7 +2237,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="681355" y="24722455"/>
+          <a:off x="765810" y="24951055"/>
           <a:ext cx="4370070" cy="1651635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2209,7 +2263,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2225,7 +2279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1200150" cy="219075"/>
+          <a:ext cx="1285875" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2355,7 +2409,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2376,9 +2430,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2399,7 +2453,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2469,7 +2523,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2495,7 +2549,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2524,96 +2578,102 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="5.12592592592593" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" ht="20.25" spans="2:3">
-      <c r="B2" s="75" t="s">
+    <row r="2" ht="21.75" spans="2:3">
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="77"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-    </row>
-    <row r="5" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B5" s="76"/>
-      <c r="C5" s="77" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+    </row>
+    <row r="5" ht="17.25" customHeight="true" spans="2:3">
+      <c r="B5" s="77"/>
+      <c r="C5" s="78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="2:3">
-      <c r="B6" s="76"/>
-      <c r="C6" s="77" t="s">
+    <row r="6" ht="18" customHeight="true" spans="2:3">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="2:3">
-      <c r="B7" s="76"/>
-      <c r="C7" s="77" t="s">
+    <row r="7" ht="18" customHeight="true" spans="2:3">
+      <c r="B7" s="77"/>
+      <c r="C7" s="78" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B8" s="76"/>
-      <c r="C8" s="77" t="s">
+    <row r="8" ht="17.25" customHeight="true" spans="2:3">
+      <c r="B8" s="77"/>
+      <c r="C8" s="78" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="2:3">
-      <c r="B9" s="76"/>
-      <c r="C9" s="77" t="s">
+    <row r="9" ht="18" customHeight="true" spans="2:3">
+      <c r="B9" s="77"/>
+      <c r="C9" s="78" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="21.75" customHeight="1" spans="2:3">
-      <c r="B10" s="76"/>
-      <c r="C10" s="77" t="s">
+    <row r="10" ht="21.75" customHeight="true" spans="2:3">
+      <c r="B10" s="77"/>
+      <c r="C10" s="78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="22.5" customHeight="1" spans="2:3">
-      <c r="B11" s="76"/>
-      <c r="C11" s="77" t="s">
+    <row r="11" ht="22.5" customHeight="true" spans="2:3">
+      <c r="B11" s="77"/>
+      <c r="C11" s="78" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="21.75" customHeight="1" spans="2:3">
-      <c r="B12" s="76"/>
-      <c r="C12" s="77" t="s">
+    <row r="12" ht="21.75" customHeight="true" spans="2:3">
+      <c r="B12" s="77"/>
+      <c r="C12" s="78" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1" spans="2:3">
-      <c r="B13" s="76"/>
-      <c r="C13" s="77" t="s">
+    <row r="13" ht="21.75" customHeight="true" spans="2:3">
+      <c r="B13" s="77"/>
+      <c r="C13" s="79" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
+    <row r="14" ht="18.75" customHeight="true" spans="2:3">
+      <c r="B14" s="77"/>
+      <c r="C14" s="78" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2626,8 +2686,9 @@
     <hyperlink ref="C10" location="'5 SOT-Model'!A1" display="5 SOT-Model"/>
     <hyperlink ref="C11" location="'6 AGD-Model'!A1" display="6 AGD-Model"/>
     <hyperlink ref="C12" location="'7 HPR-Model'!A1" display="7 HPR-Model"/>
-    <hyperlink ref="C13" location="'8 Key-Points'!A1" display="8 Key-Points"/>
+    <hyperlink ref="C14" location="'9 Key-Points'!A1" display="9 Key-Points"/>
     <hyperlink ref="C7" location="'2 DLC-List'!A1" display="2 DLC-List"/>
+    <hyperlink ref="C13" location="'8 RB5-Model'!A1" display="8 RB5-Model"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2637,175 +2698,232 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="21.75" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="114.775" customWidth="1"/>
+    <col min="2" max="2" width="114.777777777778" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:1">
+    <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" ht="21.75" customHeight="1" spans="1:1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" ht="21.75" customHeight="true" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="2:2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" ht="33" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" ht="20.25" customHeight="1" spans="2:2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" ht="20.25" customHeight="true" spans="2:2">
       <c r="B8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" ht="409" customHeight="1" spans="2:2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" ht="409" customHeight="true" spans="2:2">
       <c r="B9" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" ht="246" customHeight="1" spans="2:2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" ht="246" customHeight="true" spans="2:2">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" ht="23.25" customHeight="1" spans="2:2">
+    <row r="11" ht="23.25" customHeight="true" spans="2:2">
       <c r="B11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1" spans="2:2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="true" spans="2:2">
       <c r="B12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" ht="199.5" customHeight="1" spans="2:2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" ht="199.5" customHeight="true" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" ht="356.25" customHeight="1" spans="2:2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" ht="356.25" customHeight="true" spans="2:2">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" ht="21" customHeight="1" spans="2:2">
+    <row r="15" ht="21" customHeight="true" spans="2:2">
       <c r="B15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" ht="24.75" customHeight="1" spans="1:1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" ht="24.75" customHeight="true" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" ht="35.25" customHeight="1" spans="2:2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" ht="35.25" customHeight="true" spans="2:2">
       <c r="B18" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" ht="48" customHeight="1" spans="2:2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" ht="48" customHeight="true" spans="2:2">
       <c r="B19" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" ht="23.25" customHeight="1" spans="2:2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" ht="23.25" customHeight="true" spans="2:2">
       <c r="B20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" ht="272.25" customHeight="1" spans="2:2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" ht="272.25" customHeight="true" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" ht="20" customHeight="1"/>
-    <row r="23" ht="29.25" customHeight="1" spans="1:1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="true"/>
+    <row r="23" ht="29.25" customHeight="true" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="8" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="9" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" ht="153.75" customHeight="1" spans="2:2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" ht="153.75" customHeight="true" spans="2:2">
       <c r="B27" s="9"/>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="9" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="9" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="9" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="9" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="9" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="9" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="9" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="9" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="10" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -2813,7 +2931,7 @@
     </row>
     <row r="41" ht="256.5" spans="2:2">
       <c r="B41" s="11" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2828,7 +2946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2837,7 +2955,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2851,282 +2969,292 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="34.75" customWidth="1"/>
-    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="1" max="1" width="2.87407407407407" customWidth="true"/>
+    <col min="2" max="2" width="16" customWidth="true"/>
+    <col min="3" max="4" width="17.7481481481481" customWidth="true"/>
+    <col min="5" max="5" width="34.7481481481481" customWidth="true"/>
+    <col min="6" max="6" width="30.7481481481481" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53" t="s">
+    <row r="1" ht="30" customHeight="true" spans="1:6">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:6">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="67"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" spans="1:6">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="58" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+    </row>
+    <row r="2" ht="18" customHeight="true" spans="1:6">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="68"/>
+    </row>
+    <row r="3" ht="18" customHeight="true" spans="1:6">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="D3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="E3" s="59" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="1:6">
-      <c r="A4" s="57"/>
-      <c r="B4" s="59">
+      <c r="F3" s="69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="true" spans="1:6">
+      <c r="A4" s="58"/>
+      <c r="B4" s="60">
         <v>1</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="61">
         <v>44375</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="69" t="s">
+      <c r="D4" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="E4" s="70" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:6">
-      <c r="A5" s="57"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="71"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:6">
-      <c r="A6" s="57"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="71"/>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:6">
-      <c r="A7" s="57"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="71"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:6">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="71"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:6">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="71"/>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:6">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="71"/>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:6">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="71"/>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:6">
-      <c r="A12" s="57"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="71"/>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:6">
-      <c r="A13" s="57"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="71"/>
-    </row>
-    <row r="14" ht="18" customHeight="1" spans="1:6">
-      <c r="A14" s="57"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="71"/>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="1:6">
-      <c r="A15" s="57"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="72"/>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:6">
-      <c r="A16" s="57"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="72"/>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:6">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="72"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:6">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="72"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:6">
-      <c r="A19" s="57"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="72"/>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:6">
-      <c r="A20" s="57"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="72"/>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:6">
-      <c r="A21" s="57"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="72"/>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:6">
-      <c r="A22" s="57"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="72"/>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:6">
-      <c r="A23" s="57"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="72"/>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:6">
-      <c r="A24" s="57"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="72"/>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:6">
-      <c r="A25" s="57"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="72"/>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:6">
-      <c r="A26" s="57"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="72"/>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:6">
-      <c r="A27" s="57"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="72"/>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:6">
-      <c r="A28" s="57"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="72"/>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:6">
-      <c r="A29" s="57"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="72"/>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:6">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64" t="s">
+      <c r="F4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
+    </row>
+    <row r="5" ht="18" customHeight="true" spans="1:6">
+      <c r="A5" s="58"/>
+      <c r="B5" s="62">
+        <v>1.1</v>
+      </c>
+      <c r="C5" s="63">
+        <v>44441</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="true" spans="1:6">
+      <c r="A6" s="58"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="72"/>
+    </row>
+    <row r="7" ht="18" customHeight="true" spans="1:6">
+      <c r="A7" s="58"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="72"/>
+    </row>
+    <row r="8" ht="18" customHeight="true" spans="1:6">
+      <c r="A8" s="58"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="72"/>
+    </row>
+    <row r="9" ht="18" customHeight="true" spans="1:6">
+      <c r="A9" s="58"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="72"/>
+    </row>
+    <row r="10" ht="18" customHeight="true" spans="1:6">
+      <c r="A10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="72"/>
+    </row>
+    <row r="11" ht="18" customHeight="true" spans="1:6">
+      <c r="A11" s="58"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="72"/>
+    </row>
+    <row r="12" ht="18" customHeight="true" spans="1:6">
+      <c r="A12" s="58"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="72"/>
+    </row>
+    <row r="13" ht="18" customHeight="true" spans="1:6">
+      <c r="A13" s="58"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="72"/>
+    </row>
+    <row r="14" ht="18" customHeight="true" spans="1:6">
+      <c r="A14" s="58"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="72"/>
+    </row>
+    <row r="15" ht="18" customHeight="true" spans="1:6">
+      <c r="A15" s="58"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="73"/>
+    </row>
+    <row r="16" ht="18" customHeight="true" spans="1:6">
+      <c r="A16" s="58"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="73"/>
+    </row>
+    <row r="17" ht="18" customHeight="true" spans="1:6">
+      <c r="A17" s="58"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="73"/>
+    </row>
+    <row r="18" ht="18" customHeight="true" spans="1:6">
+      <c r="A18" s="58"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="73"/>
+    </row>
+    <row r="19" ht="18" customHeight="true" spans="1:6">
+      <c r="A19" s="58"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="73"/>
+    </row>
+    <row r="20" ht="18" customHeight="true" spans="1:6">
+      <c r="A20" s="58"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="73"/>
+    </row>
+    <row r="21" ht="18" customHeight="true" spans="1:6">
+      <c r="A21" s="58"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="73"/>
+    </row>
+    <row r="22" ht="18" customHeight="true" spans="1:6">
+      <c r="A22" s="58"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="73"/>
+    </row>
+    <row r="23" ht="18" customHeight="true" spans="1:6">
+      <c r="A23" s="58"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="73"/>
+    </row>
+    <row r="24" ht="18" customHeight="true" spans="1:6">
+      <c r="A24" s="58"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="73"/>
+    </row>
+    <row r="25" ht="18" customHeight="true" spans="1:6">
+      <c r="A25" s="58"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="73"/>
+    </row>
+    <row r="26" ht="18" customHeight="true" spans="1:6">
+      <c r="A26" s="58"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="73"/>
+    </row>
+    <row r="27" ht="18" customHeight="true" spans="1:6">
+      <c r="A27" s="58"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="73"/>
+    </row>
+    <row r="28" ht="18" customHeight="true" spans="1:6">
+      <c r="A28" s="58"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="73"/>
+    </row>
+    <row r="29" ht="18" customHeight="true" spans="1:6">
+      <c r="A29" s="58"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="73"/>
+    </row>
+    <row r="30" ht="18" customHeight="true" spans="1:6">
+      <c r="A30" s="64"/>
+      <c r="B30" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="75"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -3144,369 +3272,369 @@
       <selection activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="44.125" customWidth="1"/>
-    <col min="3" max="3" width="78.25" customWidth="1"/>
+    <col min="2" max="2" width="44.1259259259259" customWidth="true"/>
+    <col min="3" max="3" width="78.2518518518519" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:1">
+    <row r="1" ht="20" customHeight="true" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1" spans="2:2">
-      <c r="B3" s="40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="2:2">
+    <row r="2" ht="20" customHeight="true"/>
+    <row r="3" ht="20" customHeight="true" spans="2:2">
+      <c r="B3" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="true" spans="2:2">
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="2:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="true" spans="2:2">
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7" ht="20" customHeight="1" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="true"/>
+    <row r="7" ht="20" customHeight="true" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="true" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="2:2">
+    <row r="9" ht="20" customHeight="true" spans="2:2">
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="2:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="true" spans="2:2">
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="2:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="true" spans="2:2">
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1"/>
-    <row r="13" ht="20" customHeight="1" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="true"/>
+    <row r="13" ht="20" customHeight="true" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" ht="20" customHeight="1"/>
-    <row r="15" ht="20" customHeight="1" spans="2:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="true"/>
+    <row r="15" ht="20" customHeight="true" spans="2:2">
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="20" customHeight="1"/>
-    <row r="17" ht="20" customHeight="1" spans="2:5">
-      <c r="B17" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="51"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="2:3">
-      <c r="B18" s="44" t="s">
+    </row>
+    <row r="16" ht="20" customHeight="true"/>
+    <row r="17" ht="20" customHeight="true" spans="2:5">
+      <c r="B17" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C17" s="43" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="2:3">
-      <c r="B19" s="46" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="52"/>
+    </row>
+    <row r="18" ht="20" customHeight="true" spans="2:3">
+      <c r="B18" s="45" t="s">
         <v>32</v>
       </c>
+      <c r="C18" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="true" spans="2:3">
+      <c r="B19" s="47" t="s">
+        <v>34</v>
+      </c>
       <c r="C19" s="21"/>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="2:3">
-      <c r="B20" s="46" t="s">
-        <v>33</v>
+    <row r="20" ht="20" customHeight="true" spans="2:3">
+      <c r="B20" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="2:3">
-      <c r="B21" s="46" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="true" spans="2:3">
+      <c r="B21" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" ht="20" customHeight="1" spans="2:3">
-      <c r="B22" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="2:5">
-      <c r="B23" s="44" t="s">
+    <row r="22" ht="20" customHeight="true" spans="2:3">
+      <c r="B22" s="47" t="s">
         <v>38</v>
       </c>
+      <c r="C22" s="45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="true" spans="2:5">
+      <c r="B23" s="45" t="s">
+        <v>40</v>
+      </c>
       <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" ht="20" customHeight="true" spans="2:3">
+      <c r="B24" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" ht="20" customHeight="true" spans="2:3">
+      <c r="B25" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="45"/>
+    </row>
+    <row r="26" ht="20" customHeight="true" spans="2:3">
+      <c r="B26" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="51"/>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="2:3">
-      <c r="B24" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="21"/>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="2:3">
-      <c r="B25" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="44"/>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="2:3">
-      <c r="B26" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="2:3">
-      <c r="B27" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="2:3">
-      <c r="B28" s="44" t="s">
+    </row>
+    <row r="27" ht="20" customHeight="true" spans="2:3">
+      <c r="B27" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="47"/>
-    </row>
-    <row r="29" ht="20" customHeight="1" spans="2:3">
-      <c r="B29" s="48" t="s">
+      <c r="C27" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="44"/>
-    </row>
-    <row r="30" ht="20" customHeight="1" spans="2:3">
-      <c r="B30" s="44" t="s">
+    </row>
+    <row r="28" ht="20" customHeight="true" spans="2:3">
+      <c r="B28" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C28" s="48"/>
+    </row>
+    <row r="29" ht="20" customHeight="true" spans="2:3">
+      <c r="B29" s="49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="2:3">
-      <c r="B31" s="45" t="s">
+      <c r="C29" s="45"/>
+    </row>
+    <row r="30" ht="20" customHeight="true" spans="2:3">
+      <c r="B30" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C30" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" ht="20" customHeight="1" spans="2:3">
+    <row r="31" ht="20" customHeight="true" spans="2:3">
+      <c r="B31" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="true" spans="2:3">
       <c r="B32" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="49"/>
-    </row>
-    <row r="33" ht="20" customHeight="1"/>
-    <row r="34" ht="20" customHeight="1" spans="1:1">
+        <v>53</v>
+      </c>
+      <c r="C32" s="50"/>
+    </row>
+    <row r="33" ht="20" customHeight="true"/>
+    <row r="34" ht="20" customHeight="true" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" ht="20" customHeight="1" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" customFormat="true" ht="20" customHeight="true" spans="1:1">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" customFormat="1" ht="20" customHeight="1" spans="2:2">
+    <row r="36" customFormat="true" ht="20" customHeight="true" spans="2:2">
       <c r="B36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" ht="20" customHeight="1"/>
-    <row r="38" ht="20" customHeight="1" spans="2:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="true"/>
+    <row r="38" ht="20" customHeight="true" spans="2:2">
       <c r="B38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" ht="20" customHeight="1" spans="2:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="true" spans="2:2">
       <c r="B39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" ht="20" customHeight="1" spans="2:2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="true" spans="2:2">
       <c r="B40" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" ht="20" customHeight="1" spans="2:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="true" spans="2:2">
       <c r="B41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" ht="20" customHeight="1" spans="2:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="true" spans="2:2">
       <c r="B42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" ht="20" customHeight="1"/>
-    <row r="44" ht="20" customHeight="1" spans="2:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="true"/>
+    <row r="44" ht="20" customHeight="true" spans="2:6">
       <c r="B44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" ht="20" customHeight="1" spans="2:2">
-      <c r="B45" s="40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" ht="20" customHeight="1" spans="2:2">
-      <c r="B46" s="40"/>
-    </row>
-    <row r="47" ht="20" customHeight="1" spans="1:1">
+    <row r="45" ht="20" customHeight="true" spans="2:2">
+      <c r="B45" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="true" spans="2:2">
+      <c r="B46" s="41"/>
+    </row>
+    <row r="47" ht="20" customHeight="true" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" ht="20" customHeight="1" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="true" spans="1:1">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" ht="20" customHeight="1" spans="1:2">
+    <row r="49" ht="20" customHeight="true" spans="1:2">
       <c r="A49" s="2"/>
       <c r="B49" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" ht="20" customHeight="1" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="true" spans="1:2">
       <c r="A50" s="2"/>
       <c r="B50" s="9"/>
     </row>
-    <row r="51" ht="20" customHeight="1" spans="1:3">
+    <row r="51" ht="20" customHeight="true" spans="1:3">
       <c r="A51" s="2"/>
-      <c r="B51" s="50" t="s">
-        <v>63</v>
+      <c r="B51" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" ht="20" customHeight="1" spans="2:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="true" spans="2:3">
       <c r="B52" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" ht="20" customHeight="1" spans="2:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="true" spans="2:3">
       <c r="B53" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" ht="20" customHeight="1" spans="2:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="true" spans="2:3">
       <c r="B54" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" ht="20" customHeight="1" spans="2:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="true" spans="2:3">
       <c r="B55" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="21"/>
+    </row>
+    <row r="56" ht="20" customHeight="true" spans="2:3">
+      <c r="B56" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="21"/>
+    </row>
+    <row r="57" ht="20" customHeight="true" spans="2:3">
+      <c r="B57" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="21"/>
-    </row>
-    <row r="56" ht="20" customHeight="1" spans="2:3">
-      <c r="B56" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="21"/>
-    </row>
-    <row r="57" ht="20" customHeight="1" spans="2:3">
-      <c r="B57" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" ht="20" customHeight="1" spans="2:3">
+    </row>
+    <row r="58" ht="20" customHeight="true" spans="2:3">
       <c r="B58" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C58" s="21"/>
     </row>
-    <row r="59" ht="20" customHeight="1" spans="2:3">
+    <row r="59" ht="20" customHeight="true" spans="2:3">
       <c r="B59" s="21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C59" s="21"/>
     </row>
-    <row r="60" ht="20" customHeight="1" spans="2:3">
+    <row r="60" ht="20" customHeight="true" spans="2:3">
       <c r="B60" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C60" s="21"/>
     </row>
-    <row r="61" ht="20" customHeight="1" spans="2:3">
+    <row r="61" ht="20" customHeight="true" spans="2:3">
       <c r="B61" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C61" s="21"/>
     </row>
-    <row r="62" ht="20" customHeight="1" spans="2:3">
+    <row r="62" ht="20" customHeight="true" spans="2:3">
       <c r="B62" s="21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C62" s="21"/>
     </row>
-    <row r="63" ht="20" customHeight="1"/>
-    <row r="64" ht="20" customHeight="1" spans="1:1">
+    <row r="63" ht="20" customHeight="true"/>
+    <row r="64" ht="20" customHeight="true" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" ht="20" customHeight="1" spans="1:1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="true" spans="1:1">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" ht="20" customHeight="1" spans="2:2">
+    <row r="66" ht="20" customHeight="true" spans="2:2">
       <c r="B66" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" ht="20" customHeight="1" spans="2:2">
-      <c r="B67" s="40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" ht="20" customHeight="1" spans="2:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="true" spans="2:2">
+      <c r="B67" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="true" spans="2:2">
       <c r="B68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" ht="20" customHeight="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="true"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <hyperlinks>
@@ -3525,173 +3653,179 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="46.875" customWidth="1"/>
-    <col min="4" max="4" width="102.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="16.3777777777778" customWidth="true"/>
+    <col min="3" max="3" width="46.8740740740741" customWidth="true"/>
+    <col min="4" max="4" width="102.125925925926" customWidth="true"/>
+    <col min="5" max="5" width="18.3777777777778" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:1">
+    <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1"/>
-    <row r="3" customFormat="1" ht="20" customHeight="1" spans="2:2">
+    <row r="2" ht="20" customHeight="true"/>
+    <row r="3" customFormat="true" ht="20" customHeight="true" spans="2:2">
       <c r="B3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="20" customHeight="1" spans="2:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" customFormat="true" ht="20" customHeight="true" spans="2:2">
       <c r="B4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" ht="20" customHeight="1"/>
-    <row r="6" ht="20" customHeight="1" spans="2:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="true"/>
+    <row r="6" ht="20" customHeight="true" spans="2:5">
       <c r="B6" s="33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="20" customHeight="1" spans="2:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" customFormat="true" ht="20" customHeight="true" spans="2:5">
       <c r="B7" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="2:5">
+        <v>91</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="true" spans="2:5">
       <c r="B8" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="2:5">
+        <v>94</v>
+      </c>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" ht="20" customHeight="true" spans="2:5">
       <c r="B9" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="2:5">
+        <v>96</v>
+      </c>
+      <c r="E9" s="39"/>
+    </row>
+    <row r="10" ht="20" customHeight="true" spans="2:5">
       <c r="B10" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="38"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="2:5">
+        <v>98</v>
+      </c>
+      <c r="E10" s="39"/>
+    </row>
+    <row r="11" ht="20" customHeight="true" spans="2:5">
       <c r="B11" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="2:5">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="2:5">
+        <v>99</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="39"/>
+    </row>
+    <row r="12" ht="20" customHeight="true" spans="2:5">
+      <c r="B12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="39"/>
+    </row>
+    <row r="13" ht="20" customHeight="true" spans="2:5">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="2:5">
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" ht="20" customHeight="true" spans="2:5">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="2:5">
+      <c r="E14" s="39"/>
+    </row>
+    <row r="15" ht="20" customHeight="true" spans="2:5">
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="38"/>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="2:5">
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" ht="20" customHeight="true" spans="2:5">
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="38"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="2:5">
+      <c r="E16" s="39"/>
+    </row>
+    <row r="17" ht="20" customHeight="true" spans="2:5">
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="2:5">
+      <c r="E17" s="39"/>
+    </row>
+    <row r="18" ht="20" customHeight="true" spans="2:5">
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="38"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="2:5">
+      <c r="E18" s="39"/>
+    </row>
+    <row r="19" ht="20" customHeight="true" spans="2:5">
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" ht="20" customHeight="1"/>
-    <row r="21" ht="20" customHeight="1"/>
-    <row r="22" ht="20" customHeight="1"/>
-    <row r="23" ht="20" customHeight="1"/>
-    <row r="24" ht="20" customHeight="1"/>
-    <row r="25" ht="20" customHeight="1"/>
-    <row r="26" ht="20" customHeight="1"/>
-    <row r="27" ht="20" customHeight="1"/>
-    <row r="28" ht="20" customHeight="1"/>
-    <row r="29" ht="20" customHeight="1"/>
-    <row r="30" ht="20" customHeight="1"/>
-    <row r="31" ht="20" customHeight="1"/>
-    <row r="32" ht="20" customHeight="1"/>
-    <row r="33" ht="20" customHeight="1"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" ht="20" customHeight="true"/>
+    <row r="21" ht="20" customHeight="true"/>
+    <row r="22" ht="20" customHeight="true"/>
+    <row r="23" ht="20" customHeight="true"/>
+    <row r="24" ht="20" customHeight="true"/>
+    <row r="25" ht="20" customHeight="true"/>
+    <row r="26" ht="20" customHeight="true"/>
+    <row r="27" ht="20" customHeight="true"/>
+    <row r="28" ht="20" customHeight="true"/>
+    <row r="29" ht="20" customHeight="true"/>
+    <row r="30" ht="20" customHeight="true"/>
+    <row r="31" ht="20" customHeight="true"/>
+    <row r="32" ht="20" customHeight="true"/>
+    <row r="33" ht="20" customHeight="true"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="1">
@@ -3699,10 +3833,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model"/>
-    <hyperlink ref="D8" r:id="rId1" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model"/>
-    <hyperlink ref="D9" r:id="rId1" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model"/>
-    <hyperlink ref="D11" r:id="rId1" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model"/>
-    <hyperlink ref="D10" r:id="rId1" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model"/>
+    <hyperlink ref="D8" r:id="rId2" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FLPR-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FLPR-Model"/>
+    <hyperlink ref="D9" r:id="rId3" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FSOT-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FSOT-Model"/>
+    <hyperlink ref="D11" r:id="rId4" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FHPR-Model" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FHPR-Model"/>
+    <hyperlink ref="D10" r:id="rId5" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FAGD-MOdel" tooltip="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FAGD-MOdel"/>
+    <hyperlink ref="D12" r:id="rId6" display="https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FRB5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3718,76 +3853,76 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.8916666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="106.375" customWidth="1"/>
-    <col min="5" max="5" width="19.225" customWidth="1"/>
+    <col min="1" max="1" width="10.8888888888889" customWidth="true"/>
+    <col min="2" max="2" width="16.6222222222222" customWidth="true"/>
+    <col min="3" max="3" width="106.377777777778" customWidth="true"/>
+    <col min="5" max="5" width="19.2222222222222" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:1">
+    <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="true"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="2:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="true" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="true" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="2:2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="true" spans="2:2">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" ht="19.5" customHeight="1" spans="1:1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="true" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" ht="23.25" customHeight="1" spans="1:1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" ht="23.25" customHeight="true" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" s="12" customFormat="1" spans="2:10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" s="12" customFormat="true" spans="2:10">
       <c r="B18" s="28" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -3797,13 +3932,13 @@
       <c r="I18" s="17"/>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:10">
+    <row r="19" ht="18" customHeight="true" spans="1:10">
       <c r="A19" s="6"/>
       <c r="B19" s="18" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -3813,60 +3948,60 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" ht="17.25" customHeight="1" spans="2:3">
+    <row r="20" ht="17.25" customHeight="true" spans="2:3">
       <c r="B20" s="21" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" ht="20.25" customHeight="1" spans="2:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" ht="20.25" customHeight="true" spans="2:3">
       <c r="B21" s="21" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" ht="20.25" customHeight="1" spans="2:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" ht="20.25" customHeight="true" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1" spans="2:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="true" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" ht="20.25" customHeight="1" spans="2:4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" ht="20.25" customHeight="true" spans="2:4">
       <c r="B24" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="27" ht="21" customHeight="1" spans="2:2">
+    <row r="27" ht="21" customHeight="true" spans="2:2">
       <c r="B27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" ht="23.25" customHeight="1" spans="2:2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" ht="23.25" customHeight="true" spans="2:2">
       <c r="B28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1" spans="2:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="true" spans="2:2">
       <c r="B29" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3882,137 +4017,137 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="112.375" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="true"/>
+    <col min="3" max="3" width="112.377777777778" customWidth="true"/>
+    <col min="5" max="5" width="20.3777777777778" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:1">
+    <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="2:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="true" spans="2:2">
       <c r="B4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="true" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="30" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" ht="19.5" customHeight="1" spans="1:1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="true" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" ht="20.25" customHeight="1" spans="1:1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" ht="20.25" customHeight="true" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" ht="21.75" customHeight="1" spans="2:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" ht="21.75" customHeight="true" spans="2:5">
       <c r="B21" s="27" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="2:3">
+    <row r="22" ht="15" customHeight="true" spans="2:3">
       <c r="B22" s="18" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="2:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="true" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="2:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="true" spans="2:3">
       <c r="B24" s="21" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="2:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="true" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="2:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="true" spans="2:3">
       <c r="B26" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" ht="35.25" customHeight="1" spans="2:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" ht="35.25" customHeight="true" spans="2:3">
       <c r="B27" s="21" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4028,132 +4163,132 @@
   <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C25" sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="136.875" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="27.3777777777778" customWidth="true"/>
+    <col min="3" max="3" width="136.874074074074" customWidth="true"/>
+    <col min="5" max="5" width="22.8740740740741" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:1">
+    <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="2:2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="true" spans="2:2">
       <c r="B4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1"/>
-    <row r="6" ht="22.5" customHeight="1" spans="1:1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="true"/>
+    <row r="6" ht="22.5" customHeight="true" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="true" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" ht="24.75" customHeight="1" spans="1:1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" ht="24.75" customHeight="true" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" ht="23" customHeight="1" spans="2:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="true" spans="2:5">
       <c r="B18" s="27" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="2:3">
+    <row r="19" ht="20" customHeight="true" spans="2:3">
       <c r="B19" s="18" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="2:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="true" spans="2:3">
       <c r="B20" s="21" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="2:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="true" spans="2:3">
       <c r="B21" s="21" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="2:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="true" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="2:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="true" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="2:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="true" spans="2:3">
       <c r="B24" s="21" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="2:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="true" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4168,91 +4303,91 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.8916666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="106.5" customWidth="1"/>
+    <col min="1" max="1" width="10.8888888888889" customWidth="true"/>
+    <col min="2" max="2" width="23.2518518518519" customWidth="true"/>
+    <col min="3" max="3" width="106.503703703704" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:1">
+    <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" ht="20" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1" spans="2:2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="true"/>
+    <row r="3" ht="20" customHeight="true" spans="2:2">
       <c r="B3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="2:2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="true" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="2:2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="true" spans="2:2">
       <c r="B5" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7" ht="20" customHeight="1" spans="1:1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="true"/>
+    <row r="7" ht="20" customHeight="true" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="true" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="2:2">
+    <row r="9" ht="20" customHeight="true" spans="2:2">
       <c r="B9" s="25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="2:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="true" spans="2:2">
       <c r="B10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="2:2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="true" spans="2:2">
       <c r="B11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1"/>
-    <row r="13" ht="20" customHeight="1" spans="1:1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="true"/>
+    <row r="13" ht="20" customHeight="true" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" ht="20" customHeight="1"/>
-    <row r="15" ht="20" customHeight="1" spans="2:2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="true"/>
+    <row r="15" ht="20" customHeight="true" spans="2:2">
       <c r="B15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" ht="20" customHeight="1"/>
-    <row r="17" ht="20" customHeight="1" spans="1:1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="true"/>
+    <row r="17" ht="20" customHeight="true" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="1:1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="true" spans="1:1">
       <c r="A18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" s="12" customFormat="1" ht="20" customHeight="1" spans="2:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" s="12" customFormat="true" ht="20" customHeight="true" spans="2:8">
       <c r="B19" s="16" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -4260,13 +4395,13 @@
       <c r="G19" s="17"/>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="1:8">
+    <row r="20" ht="20" customHeight="true" spans="1:8">
       <c r="A20" s="6"/>
       <c r="B20" s="18" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="26"/>
@@ -4274,66 +4409,66 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="36" customHeight="1" spans="2:3">
+    <row r="21" ht="36" customHeight="true" spans="2:3">
       <c r="B21" s="21" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="2:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="true" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="2:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="true" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="2:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="true" spans="2:3">
       <c r="B24" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="2:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="true" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="2:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="true" spans="2:3">
       <c r="B26" s="21" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="2:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="true" spans="2:3">
       <c r="B27" s="21" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" ht="20" customHeight="1"/>
-    <row r="29" ht="20" customHeight="1"/>
-    <row r="30" ht="20" customHeight="1"/>
-    <row r="31" ht="20" customHeight="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="true"/>
+    <row r="29" ht="20" customHeight="true"/>
+    <row r="30" ht="20" customHeight="true"/>
+    <row r="31" ht="20" customHeight="true"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <hyperlinks>
@@ -4349,122 +4484,122 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.8916666666667" customWidth="1"/>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
-    <col min="3" max="3" width="101.25" customWidth="1"/>
+    <col min="1" max="1" width="10.8888888888889" customWidth="true"/>
+    <col min="2" max="2" width="42.6222222222222" customWidth="true"/>
+    <col min="3" max="3" width="101.251851851852" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:1">
+    <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" ht="20" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1" spans="2:2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="true"/>
+    <row r="3" ht="20" customHeight="true" spans="2:2">
       <c r="B3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="2:2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="true" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="2:2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="true" spans="2:2">
       <c r="B5" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7" ht="20" customHeight="1" spans="1:1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="true"/>
+    <row r="7" ht="20" customHeight="true" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="true" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="2:2">
+    <row r="9" ht="20" customHeight="true" spans="2:2">
       <c r="B9" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="2:2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="true" spans="2:2">
       <c r="B10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="2:2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="true" spans="2:2">
       <c r="B11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="2:2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="true" spans="2:2">
       <c r="B12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="2:2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="true" spans="2:2">
       <c r="B13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="2:2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="true" spans="2:2">
       <c r="B14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="2:2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="true" spans="2:2">
       <c r="B15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="2:2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="true" spans="2:2">
       <c r="B16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="2:2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="true" spans="2:2">
       <c r="B17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" ht="20" customHeight="1"/>
-    <row r="19" ht="20" customHeight="1"/>
-    <row r="20" ht="20" customHeight="1" spans="1:1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="true"/>
+    <row r="19" ht="20" customHeight="true"/>
+    <row r="20" ht="20" customHeight="true" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1"/>
-    <row r="22" ht="20" customHeight="1" spans="2:2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="true"/>
+    <row r="22" ht="20" customHeight="true" spans="2:2">
       <c r="B22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" ht="20" customHeight="1"/>
-    <row r="24" ht="20" customHeight="1" spans="1:1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="true"/>
+    <row r="24" ht="20" customHeight="true" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="1:1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="true" spans="1:1">
       <c r="A25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" s="12" customFormat="1" ht="20" customHeight="1" spans="2:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" s="12" customFormat="true" ht="20" customHeight="true" spans="2:8">
       <c r="B26" s="16" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -4472,13 +4607,13 @@
       <c r="G26" s="17"/>
       <c r="H26" s="23"/>
     </row>
-    <row r="27" ht="20" customHeight="1" spans="1:8">
+    <row r="27" ht="20" customHeight="true" spans="1:8">
       <c r="A27" s="6"/>
       <c r="B27" s="18" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -4486,40 +4621,40 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" ht="20" customHeight="1" spans="2:3">
+    <row r="28" ht="20" customHeight="true" spans="2:3">
       <c r="B28" s="21" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" ht="39" customHeight="1" spans="2:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" ht="39" customHeight="true" spans="2:3">
       <c r="B29" s="21" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" ht="20" customHeight="1" spans="2:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="true" spans="2:3">
       <c r="B30" s="21" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="2:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="true" spans="2:3">
       <c r="B31" s="21" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" ht="20" customHeight="1"/>
-    <row r="33" ht="20" customHeight="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="true"/>
+    <row r="33" ht="20" customHeight="true"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <hyperlinks>
@@ -4528,96 +4663,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <woSheetsProps>
-    <woSheetProps sheetStid="7" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="6" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="2" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="13" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="4" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="5" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="11" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="12" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="8" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="10" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-  </woSheetsProps>
-  <woBookProps>
-    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn"/>
-  </woBookProps>
-</woProps>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="7" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="8" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="7"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-</pixelators>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SNPE-Demo-Application-Summary.xlsx
+++ b/SNPE-Demo-Application-Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26970" windowHeight="12600" activeTab="1"/>
+    <workbookView windowWidth="26970" windowHeight="12600" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -16,16 +16,15 @@
     <sheet name="5 SOT-Model" sheetId="5" r:id="rId7"/>
     <sheet name="6 AGD-Model" sheetId="11" r:id="rId8"/>
     <sheet name="7 HPR-Model" sheetId="12" r:id="rId9"/>
-    <sheet name="8 RB5-Model" sheetId="14" r:id="rId10"/>
-    <sheet name="9 Key-Points" sheetId="8" r:id="rId11"/>
-    <sheet name="WpsReserved_CellImgList" sheetId="10" state="veryHidden" r:id="rId12"/>
+    <sheet name="8 Key-Points" sheetId="8" r:id="rId10"/>
+    <sheet name="WpsReserved_CellImgList" sheetId="10" state="veryHidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="231">
   <si>
     <t>Table of Contents</t>
   </si>
@@ -54,280 +53,277 @@
     <t>7 HPR-Model</t>
   </si>
   <si>
+    <t>8 Key-Points</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Distinguish</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>yuandekun/zhanglei</t>
+  </si>
+  <si>
+    <t>Distinguish: N=New    /    U=Update    /    D=Delete</t>
+  </si>
+  <si>
+    <t>Qualcomm Neural Processing SDK for AI(short for SNPE)</t>
+  </si>
+  <si>
+    <t>Currently the latest version of SNPE is 1.51.</t>
+  </si>
+  <si>
+    <t>This sheet is mainly used to show the functions and supported networks of snpe so far.</t>
+  </si>
+  <si>
+    <t>1.1 Scope</t>
+  </si>
+  <si>
+    <t>Does your hardware platform support snpe ?</t>
+  </si>
+  <si>
+    <t>Is your model supported by snpe ?</t>
+  </si>
+  <si>
+    <t>Does your model contain layers that cannot be converted ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 HardWare Platform </t>
+  </si>
+  <si>
+    <t>The content of the following table comes from the compilation of historical version information of Qualcomm SNPE, which may not be perfect.</t>
+  </si>
+  <si>
+    <t>Platfrom</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Snapdragon 855</t>
+  </si>
+  <si>
+    <t>Hexagon DSP with Tensor Accelerator and Vector eXtensions, Adreno GPU and CPU</t>
+  </si>
+  <si>
+    <t>Snapdragon 845/835</t>
+  </si>
+  <si>
+    <t>Snapdragon 820 Automotive</t>
+  </si>
+  <si>
+    <t>CPU, and GPU ADSP</t>
+  </si>
+  <si>
+    <t>Snapdragon 712</t>
+  </si>
+  <si>
+    <t>Snapdragon 675</t>
+  </si>
+  <si>
+    <t>Hexagon DSP, Adreno GPU and CPU</t>
+  </si>
+  <si>
+    <t>Snapdragon 660</t>
+  </si>
+  <si>
+    <t>CPU, GPU, and cDSP</t>
+  </si>
+  <si>
+    <t>Snapdragon 653/652/650/636</t>
+  </si>
+  <si>
+    <t>Snapdragon 636</t>
+  </si>
+  <si>
+    <t>Snapdragon 632 mobile platform</t>
+  </si>
+  <si>
+    <t>Snapdragon 630</t>
+  </si>
+  <si>
+    <t>CPU, GPU</t>
+  </si>
+  <si>
+    <t>Snapdragon 626/625</t>
+  </si>
+  <si>
+    <t>Snapdragon 450</t>
+  </si>
+  <si>
+    <t>Snapdragon 439/429</t>
+  </si>
+  <si>
+    <t>Adreno GPU and CPU</t>
+  </si>
+  <si>
+    <t>Qualcomm® QCS605 SoC</t>
+  </si>
+  <si>
+    <t>Hexagon DSP (Android, Linux) and on Adreno GPU and CPU</t>
+  </si>
+  <si>
+    <t>Qualcomm® QCS403 SoC</t>
+  </si>
+  <si>
+    <t>1.3 Network Framework</t>
+  </si>
+  <si>
+    <t>At present, the mainstream neural network frameworks supported by SNPE are as follows:</t>
+  </si>
+  <si>
+    <t>Caffe and Caffe2</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>TF Lite</t>
+  </si>
+  <si>
+    <t>ONNX</t>
+  </si>
+  <si>
+    <t>TVM</t>
+  </si>
+  <si>
+    <t>If you want to use any of the above frameworks in conjunction with SNPE, you can refer to this setup url to complete the setup.</t>
+  </si>
+  <si>
+    <t>https://developer.qualcomm.com/docs/snpe/usergroup0.html</t>
+  </si>
+  <si>
+    <t>1.4 Network Models</t>
+  </si>
+  <si>
+    <t>The following supported neural network models are compiled from SNPE's historical update version records, and there may be some omissions.</t>
+  </si>
+  <si>
+    <t>Network Structture</t>
+  </si>
+  <si>
+    <t>Devices</t>
+  </si>
+  <si>
+    <t>FasterRCNN</t>
+  </si>
+  <si>
+    <t>CPU, DSP</t>
+  </si>
+  <si>
+    <t>MobileNets</t>
+  </si>
+  <si>
+    <t>CPU, GPU, DSP</t>
+  </si>
+  <si>
+    <t>MobileNet SSD</t>
+  </si>
+  <si>
+    <t>MobileNetV3</t>
+  </si>
+  <si>
+    <t>TF MobileNet-V1-FPN-SSD</t>
+  </si>
+  <si>
+    <t>Inception-v3</t>
+  </si>
+  <si>
+    <t>YOLOv2, YOLOv3, tiny-YOLOv3, and YOLOv5</t>
+  </si>
+  <si>
+    <t>VGG</t>
+  </si>
+  <si>
+    <t>Flownet</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>Shufflenet V2</t>
+  </si>
+  <si>
+    <t>1.5 Network Layers</t>
+  </si>
+  <si>
+    <t>For specific information on the network layer,please check the network_layers url as follow:</t>
+  </si>
+  <si>
+    <t>https://developer.qualcomm.com/docs/snpe/network_layers.html</t>
+  </si>
+  <si>
+    <t>At the same time, the subsequent *-layer sheet only describes the network layer used in the model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because some model files are large (over 100M) and cannot be uploaded to github, </t>
+  </si>
+  <si>
+    <t>we will specially apply for a space to manage the storage of dlc model files, and provide network layer information files and network structure files.</t>
+  </si>
+  <si>
+    <t>Model Type</t>
+  </si>
+  <si>
+    <t>Network structure type</t>
+  </si>
+  <si>
+    <t>Model Link</t>
+  </si>
+  <si>
+    <t>Entry Code</t>
+  </si>
+  <si>
+    <t>Inception_v3</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model</t>
+  </si>
+  <si>
+    <t>ycjk</t>
+  </si>
+  <si>
+    <t>MobileNet-SSD</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FLPR-Model</t>
+  </si>
+  <si>
+    <t>Goturn</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FSOT-Model</t>
+  </si>
+  <si>
+    <t>Dlib</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FAGD-MOdel</t>
+  </si>
+  <si>
+    <t>VGG-19</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FHPR-Model</t>
+  </si>
+  <si>
     <t>8 RB5-Model</t>
-  </si>
-  <si>
-    <t>9 Key-Points</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Distinguish</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>yuandekun/zhanglei</t>
-  </si>
-  <si>
-    <t>add RB5-Model sheet</t>
-  </si>
-  <si>
-    <t>Distinguish: N=New    /    U=Update    /    D=Delete</t>
-  </si>
-  <si>
-    <t>Qualcomm Neural Processing SDK for AI(short for SNPE)</t>
-  </si>
-  <si>
-    <t>Currently the latest version of SNPE is 1.51.</t>
-  </si>
-  <si>
-    <t>This sheet is mainly used to show the functions and supported networks of snpe so far.</t>
-  </si>
-  <si>
-    <t>1.1 Scope</t>
-  </si>
-  <si>
-    <t>Does your hardware platform support snpe ?</t>
-  </si>
-  <si>
-    <t>Is your model supported by snpe ?</t>
-  </si>
-  <si>
-    <t>Does your model contain layers that cannot be converted ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 HardWare Platform </t>
-  </si>
-  <si>
-    <t>The content of the following table comes from the compilation of historical version information of Qualcomm SNPE, which may not be perfect.</t>
-  </si>
-  <si>
-    <t>Platfrom</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Snapdragon 855</t>
-  </si>
-  <si>
-    <t>Hexagon DSP with Tensor Accelerator and Vector eXtensions, Adreno GPU and CPU</t>
-  </si>
-  <si>
-    <t>Snapdragon 845/835</t>
-  </si>
-  <si>
-    <t>Snapdragon 820 Automotive</t>
-  </si>
-  <si>
-    <t>CPU, and GPU ADSP</t>
-  </si>
-  <si>
-    <t>Snapdragon 712</t>
-  </si>
-  <si>
-    <t>Snapdragon 675</t>
-  </si>
-  <si>
-    <t>Hexagon DSP, Adreno GPU and CPU</t>
-  </si>
-  <si>
-    <t>Snapdragon 660</t>
-  </si>
-  <si>
-    <t>CPU, GPU, and cDSP</t>
-  </si>
-  <si>
-    <t>Snapdragon 653/652/650/636</t>
-  </si>
-  <si>
-    <t>Snapdragon 636</t>
-  </si>
-  <si>
-    <t>Snapdragon 632 mobile platform</t>
-  </si>
-  <si>
-    <t>Snapdragon 630</t>
-  </si>
-  <si>
-    <t>CPU, GPU</t>
-  </si>
-  <si>
-    <t>Snapdragon 626/625</t>
-  </si>
-  <si>
-    <t>Snapdragon 450</t>
-  </si>
-  <si>
-    <t>Snapdragon 439/429</t>
-  </si>
-  <si>
-    <t>Adreno GPU and CPU</t>
-  </si>
-  <si>
-    <t>Qualcomm® QCS605 SoC</t>
-  </si>
-  <si>
-    <t>Hexagon DSP (Android, Linux) and on Adreno GPU and CPU</t>
-  </si>
-  <si>
-    <t>Qualcomm® QCS403 SoC</t>
-  </si>
-  <si>
-    <t>1.3 Network Framework</t>
-  </si>
-  <si>
-    <t>At present, the mainstream neural network frameworks supported by SNPE are as follows:</t>
-  </si>
-  <si>
-    <t>Caffe and Caffe2</t>
-  </si>
-  <si>
-    <t>Tensorflow</t>
-  </si>
-  <si>
-    <t>TF Lite</t>
-  </si>
-  <si>
-    <t>ONNX</t>
-  </si>
-  <si>
-    <t>TVM</t>
-  </si>
-  <si>
-    <t>If you want to use any of the above frameworks in conjunction with SNPE, you can refer to this setup url to complete the setup.</t>
-  </si>
-  <si>
-    <t>https://developer.qualcomm.com/docs/snpe/usergroup0.html</t>
-  </si>
-  <si>
-    <t>1.4 Network Models</t>
-  </si>
-  <si>
-    <t>The following supported neural network models are compiled from SNPE's historical update version records, and there may be some omissions.</t>
-  </si>
-  <si>
-    <t>Network Structture</t>
-  </si>
-  <si>
-    <t>Devices</t>
-  </si>
-  <si>
-    <t>FasterRCNN</t>
-  </si>
-  <si>
-    <t>CPU, DSP</t>
-  </si>
-  <si>
-    <t>MobileNets</t>
-  </si>
-  <si>
-    <t>CPU, GPU, DSP</t>
-  </si>
-  <si>
-    <t>MobileNet SSD</t>
-  </si>
-  <si>
-    <t>MobileNetV3</t>
-  </si>
-  <si>
-    <t>TF MobileNet-V1-FPN-SSD</t>
-  </si>
-  <si>
-    <t>Inception-v3</t>
-  </si>
-  <si>
-    <t>YOLOv2, YOLOv3, tiny-YOLOv3, and YOLOv5</t>
-  </si>
-  <si>
-    <t>VGG</t>
-  </si>
-  <si>
-    <t>Flownet</t>
-  </si>
-  <si>
-    <t>LSTM</t>
-  </si>
-  <si>
-    <t>Shufflenet V2</t>
-  </si>
-  <si>
-    <t>1.5 Network Layers</t>
-  </si>
-  <si>
-    <t>For specific information on the network layer,please check the network_layers url as follow:</t>
-  </si>
-  <si>
-    <t>https://developer.qualcomm.com/docs/snpe/network_layers.html</t>
-  </si>
-  <si>
-    <t>At the same time, the subsequent *-layer sheet only describes the network layer used in the model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Because some model files are large (over 100M) and cannot be uploaded to github, </t>
-  </si>
-  <si>
-    <t>we will specially apply for a space to manage the storage of dlc model files, and provide network layer information files and network structure files.</t>
-  </si>
-  <si>
-    <t>Model Type</t>
-  </si>
-  <si>
-    <t>Network structure type</t>
-  </si>
-  <si>
-    <t>Model Link</t>
-  </si>
-  <si>
-    <t>Entry Code</t>
-  </si>
-  <si>
-    <t>Inception_v3</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FMOD-Model</t>
-  </si>
-  <si>
-    <t>ycjk</t>
-  </si>
-  <si>
-    <t>MobileNet-SSD</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FLPR-Model</t>
-  </si>
-  <si>
-    <t>Goturn</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FSOT-Model</t>
-  </si>
-  <si>
-    <t>Dlib</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FAGD-MOdel</t>
-  </si>
-  <si>
-    <t>VGG-19</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1hyA1RVKh6tpLx21d1NlszA#list/path=%2FDLC-Models-Repository%2FHPR-Model</t>
   </si>
   <si>
     <t>MobileNet</t>
@@ -629,21 +625,6 @@
   </si>
   <si>
     <t xml:space="preserve">This layer concatenates multiple inputs into a single output. </t>
-  </si>
-  <si>
-    <t>This sheet describes the SNPE DLC model files from the RB5 platform.</t>
-  </si>
-  <si>
-    <t>8.1 Network Introduce</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>8.2 Network structure</t>
-  </si>
-  <si>
-    <t>8.3 Core Layer</t>
   </si>
   <si>
     <t>Key-Points</t>
@@ -944,8 +925,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
@@ -1074,16 +1055,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1098,40 +1100,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1151,10 +1124,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1165,32 +1163,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1223,19 +1204,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,19 +1252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,37 +1270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,19 +1282,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,13 +1306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,13 +1324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,7 +1348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,13 +1360,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,21 +1650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1704,21 +1670,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1749,6 +1700,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1762,124 +1743,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="28" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="23" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="28" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="25" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="28" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="24" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="26" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1888,26 +1869,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2143,9 +2124,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="41" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="41" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2578,10 +2556,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -2651,17 +2629,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="21.75" customHeight="true" spans="2:3">
+    <row r="13" ht="18.75" customHeight="true" spans="2:3">
       <c r="B13" s="77"/>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="78" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="true" spans="2:3">
+    <row r="14" spans="2:3">
       <c r="B14" s="77"/>
-      <c r="C14" s="78" t="s">
-        <v>10</v>
-      </c>
+      <c r="C14" s="77"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="77"/>
@@ -2670,10 +2646,6 @@
     <row r="16" spans="2:3">
       <c r="B16" s="77"/>
       <c r="C16" s="77"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2686,9 +2658,8 @@
     <hyperlink ref="C10" location="'5 SOT-Model'!A1" display="5 SOT-Model"/>
     <hyperlink ref="C11" location="'6 AGD-Model'!A1" display="6 AGD-Model"/>
     <hyperlink ref="C12" location="'7 HPR-Model'!A1" display="7 HPR-Model"/>
-    <hyperlink ref="C14" location="'9 Key-Points'!A1" display="9 Key-Points"/>
+    <hyperlink ref="C13" location="'8 Key-Points'!A1" display="8 Key-Points"/>
     <hyperlink ref="C7" location="'2 DLC-List'!A1" display="2 DLC-List"/>
-    <hyperlink ref="C13" location="'8 RB5-Model'!A1" display="8 RB5-Model"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2698,67 +2669,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" ht="21.75" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2768,32 +2682,32 @@
   <sheetData>
     <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" ht="21.75" customHeight="true" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" ht="20.25" customHeight="true" spans="2:2">
       <c r="B8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" ht="409" customHeight="true" spans="2:2">
       <c r="B9" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" ht="246" customHeight="true" spans="2:2">
@@ -2801,17 +2715,17 @@
     </row>
     <row r="11" ht="23.25" customHeight="true" spans="2:2">
       <c r="B11" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="21" customHeight="true" spans="2:2">
       <c r="B12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" ht="199.5" customHeight="true" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" ht="356.25" customHeight="true" spans="2:2">
@@ -2819,53 +2733,53 @@
     </row>
     <row r="15" ht="21" customHeight="true" spans="2:2">
       <c r="B15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="true" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" ht="35.25" customHeight="true" spans="2:2">
       <c r="B18" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" ht="48" customHeight="true" spans="2:2">
       <c r="B19" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" ht="23.25" customHeight="true" spans="2:2">
       <c r="B20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" ht="272.25" customHeight="true" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="true"/>
     <row r="23" ht="29.25" customHeight="true" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" ht="153.75" customHeight="true" spans="2:2">
@@ -2873,57 +2787,57 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -2931,7 +2845,7 @@
     </row>
     <row r="41" ht="256.5" spans="2:2">
       <c r="B41" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2946,7 +2860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2969,8 +2883,8 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -3003,19 +2917,19 @@
     <row r="3" ht="18" customHeight="true" spans="1:6">
       <c r="A3" s="58"/>
       <c r="B3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="D3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="E3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="F3" s="69" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="true" spans="1:6">
@@ -3027,32 +2941,22 @@
         <v>44375</v>
       </c>
       <c r="D4" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="F4" s="71" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="true" spans="1:6">
       <c r="A5" s="58"/>
-      <c r="B5" s="62">
-        <v>1.1</v>
-      </c>
-      <c r="C5" s="63">
-        <v>44441</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>18</v>
-      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="72"/>
     </row>
     <row r="6" ht="18" customHeight="true" spans="1:6">
       <c r="A6" s="58"/>
@@ -3249,7 +3153,7 @@
     <row r="30" ht="18" customHeight="true" spans="1:6">
       <c r="A30" s="64"/>
       <c r="B30" s="65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="65"/>
@@ -3286,23 +3190,23 @@
     <row r="2" ht="20" customHeight="true"/>
     <row r="3" ht="20" customHeight="true" spans="2:2">
       <c r="B3" s="41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="true" spans="2:2">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="true" spans="2:2">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="true"/>
     <row r="7" ht="20" customHeight="true" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="true" spans="1:1">
@@ -3310,154 +3214,154 @@
     </row>
     <row r="9" ht="20" customHeight="true" spans="2:2">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="true" spans="2:2">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="true" spans="2:2">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="true"/>
     <row r="13" ht="20" customHeight="true" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="true"/>
     <row r="15" ht="20" customHeight="true" spans="2:2">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="true"/>
     <row r="17" ht="20" customHeight="true" spans="2:5">
       <c r="B17" s="42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="52"/>
     </row>
     <row r="18" ht="20" customHeight="true" spans="2:3">
       <c r="B18" s="45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="true" spans="2:3">
       <c r="B19" s="47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="21"/>
     </row>
     <row r="20" ht="20" customHeight="true" spans="2:3">
       <c r="B20" s="47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="true" spans="2:3">
       <c r="B21" s="47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="21"/>
     </row>
     <row r="22" ht="20" customHeight="true" spans="2:3">
       <c r="B22" s="47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="true" spans="2:5">
       <c r="B23" s="45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="52"/>
     </row>
     <row r="24" ht="20" customHeight="true" spans="2:3">
       <c r="B24" s="47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="21"/>
     </row>
     <row r="25" ht="20" customHeight="true" spans="2:3">
       <c r="B25" s="45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="45"/>
     </row>
     <row r="26" ht="20" customHeight="true" spans="2:3">
       <c r="B26" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="true" spans="2:3">
       <c r="B27" s="45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="true" spans="2:3">
       <c r="B28" s="45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="48"/>
     </row>
     <row r="29" ht="20" customHeight="true" spans="2:3">
       <c r="B29" s="49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="45"/>
     </row>
     <row r="30" ht="20" customHeight="true" spans="2:3">
       <c r="B30" s="45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="true" spans="2:3">
       <c r="B31" s="46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="true" spans="2:3">
       <c r="B32" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="50"/>
     </row>
     <row r="33" ht="20" customHeight="true"/>
     <row r="34" ht="20" customHeight="true" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" customFormat="true" ht="20" customHeight="true" spans="1:1">
@@ -3465,45 +3369,45 @@
     </row>
     <row r="36" customFormat="true" ht="20" customHeight="true" spans="2:2">
       <c r="B36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="true"/>
     <row r="38" ht="20" customHeight="true" spans="2:2">
       <c r="B38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="true" spans="2:2">
       <c r="B39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="true" spans="2:2">
       <c r="B40" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="true" spans="2:2">
       <c r="B41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="true" spans="2:2">
       <c r="B42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="true"/>
     <row r="44" ht="20" customHeight="true" spans="2:6">
       <c r="B44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F44" s="15"/>
     </row>
     <row r="45" ht="20" customHeight="true" spans="2:2">
       <c r="B45" s="41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="true" spans="2:2">
@@ -3511,7 +3415,7 @@
     </row>
     <row r="47" ht="20" customHeight="true" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="true" spans="1:1">
@@ -3520,7 +3424,7 @@
     <row r="49" ht="20" customHeight="true" spans="1:2">
       <c r="A49" s="2"/>
       <c r="B49" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="true" spans="1:2">
@@ -3530,90 +3434,90 @@
     <row r="51" ht="20" customHeight="true" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="true" spans="2:3">
       <c r="B52" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="true" spans="2:3">
       <c r="B53" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="true" spans="2:3">
       <c r="B54" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="true" spans="2:3">
       <c r="B55" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" s="21"/>
     </row>
     <row r="56" ht="20" customHeight="true" spans="2:3">
       <c r="B56" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="21"/>
     </row>
     <row r="57" ht="20" customHeight="true" spans="2:3">
       <c r="B57" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="true" spans="2:3">
       <c r="B58" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="21"/>
     </row>
     <row r="59" ht="20" customHeight="true" spans="2:3">
       <c r="B59" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="21"/>
     </row>
     <row r="60" ht="20" customHeight="true" spans="2:3">
       <c r="B60" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="21"/>
     </row>
     <row r="61" ht="20" customHeight="true" spans="2:3">
       <c r="B61" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="21"/>
     </row>
     <row r="62" ht="20" customHeight="true" spans="2:3">
       <c r="B62" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="21"/>
     </row>
     <row r="63" ht="20" customHeight="true"/>
     <row r="64" ht="20" customHeight="true" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="true" spans="1:1">
@@ -3621,17 +3525,17 @@
     </row>
     <row r="66" ht="20" customHeight="true" spans="2:2">
       <c r="B66" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="true" spans="2:2">
       <c r="B67" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="true" spans="2:2">
       <c r="B68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="true"/>
@@ -3673,27 +3577,27 @@
     <row r="2" ht="20" customHeight="true"/>
     <row r="3" customFormat="true" ht="20" customHeight="true" spans="2:2">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="true" ht="20" customHeight="true" spans="2:2">
       <c r="B4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="true"/>
     <row r="6" ht="20" customHeight="true" spans="2:5">
       <c r="B6" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="E6" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="true" ht="20" customHeight="true" spans="2:5">
@@ -3701,13 +3605,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>90</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="true" spans="2:5">
@@ -3715,10 +3619,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="39"/>
     </row>
@@ -3727,10 +3631,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="39"/>
     </row>
@@ -3739,10 +3643,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="39"/>
     </row>
@@ -3751,22 +3655,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="39"/>
     </row>
     <row r="12" ht="20" customHeight="true" spans="2:5">
       <c r="B12" s="34" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="C12" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>101</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>102</v>
       </c>
       <c r="E12" s="39"/>
     </row>
@@ -3863,66 +3767,66 @@
   <sheetData>
     <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="true"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="true" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="true" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="true" spans="2:2">
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="true" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="23.25" customHeight="true" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" s="12" customFormat="true" spans="2:10">
       <c r="B18" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -3935,10 +3839,10 @@
     <row r="19" ht="18" customHeight="true" spans="1:10">
       <c r="A19" s="6"/>
       <c r="B19" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -3950,58 +3854,58 @@
     </row>
     <row r="20" ht="17.25" customHeight="true" spans="2:3">
       <c r="B20" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" ht="20.25" customHeight="true" spans="2:3">
       <c r="B21" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" ht="20.25" customHeight="true" spans="2:3">
       <c r="B22" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="true" spans="2:3">
       <c r="B23" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" ht="20.25" customHeight="true" spans="2:4">
       <c r="B24" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="27" ht="21" customHeight="true" spans="2:2">
       <c r="B27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" ht="23.25" customHeight="true" spans="2:2">
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="true" spans="2:2">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4029,125 +3933,125 @@
   <sheetData>
     <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="true" spans="2:2">
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="true" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" ht="19.5" customHeight="true" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" ht="20.25" customHeight="true" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" ht="21.75" customHeight="true" spans="2:5">
       <c r="B21" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="17"/>
     </row>
     <row r="22" ht="15" customHeight="true" spans="2:3">
       <c r="B22" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="true" spans="2:3">
       <c r="B23" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="true" spans="2:3">
       <c r="B24" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="true" spans="2:3">
       <c r="B25" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="true" spans="2:3">
       <c r="B26" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="27" ht="35.25" customHeight="true" spans="2:3">
       <c r="B27" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>143</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4176,119 +4080,119 @@
   <sheetData>
     <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="true" spans="2:2">
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="true"/>
     <row r="6" ht="22.5" customHeight="true" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="true" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="true" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="true" spans="2:5">
       <c r="B18" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="17"/>
     </row>
     <row r="19" ht="20" customHeight="true" spans="2:3">
       <c r="B19" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="true" spans="2:3">
       <c r="B20" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="true" spans="2:3">
       <c r="B21" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="true" spans="2:3">
       <c r="B22" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="true" spans="2:3">
       <c r="B23" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="true" spans="2:3">
       <c r="B24" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="true" spans="2:3">
       <c r="B25" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>159</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4316,29 +4220,29 @@
   <sheetData>
     <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="true"/>
     <row r="3" ht="20" customHeight="true" spans="2:2">
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="true" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="true" spans="2:2">
       <c r="B5" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="true"/>
     <row r="7" ht="20" customHeight="true" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="true" spans="1:1">
@@ -4346,48 +4250,48 @@
     </row>
     <row r="9" ht="20" customHeight="true" spans="2:2">
       <c r="B9" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="true" spans="2:2">
       <c r="B10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="true" spans="2:2">
       <c r="B11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="true"/>
     <row r="13" ht="20" customHeight="true" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="true"/>
     <row r="15" ht="20" customHeight="true" spans="2:2">
       <c r="B15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="true"/>
     <row r="17" ht="20" customHeight="true" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="true" spans="1:1">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" s="12" customFormat="true" ht="20" customHeight="true" spans="2:8">
       <c r="B19" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -4398,10 +4302,10 @@
     <row r="20" ht="20" customHeight="true" spans="1:8">
       <c r="A20" s="6"/>
       <c r="B20" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="26"/>
@@ -4411,58 +4315,58 @@
     </row>
     <row r="21" ht="36" customHeight="true" spans="2:3">
       <c r="B21" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="true" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="true" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="true" spans="2:3">
       <c r="B24" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="true" spans="2:3">
       <c r="B25" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>176</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="true" spans="2:3">
       <c r="B26" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="true" spans="2:3">
       <c r="B27" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="true"/>
@@ -4497,29 +4401,29 @@
   <sheetData>
     <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="true"/>
     <row r="3" ht="20" customHeight="true" spans="2:2">
       <c r="B3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="true" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="true" spans="2:2">
       <c r="B5" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="true"/>
     <row r="7" ht="20" customHeight="true" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="true" spans="1:1">
@@ -4527,79 +4431,79 @@
     </row>
     <row r="9" ht="20" customHeight="true" spans="2:2">
       <c r="B9" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="true" spans="2:2">
       <c r="B10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="true" spans="2:2">
       <c r="B11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="true" spans="2:2">
       <c r="B12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="true" spans="2:2">
       <c r="B13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="true" spans="2:2">
       <c r="B14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="true" spans="2:2">
       <c r="B15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="true" spans="2:2">
       <c r="B16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="true" spans="2:2">
       <c r="B17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="true"/>
     <row r="19" ht="20" customHeight="true"/>
     <row r="20" ht="20" customHeight="true" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="true"/>
     <row r="22" ht="20" customHeight="true" spans="2:2">
       <c r="B22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="true"/>
     <row r="24" ht="20" customHeight="true" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="true" spans="1:1">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" s="12" customFormat="true" ht="20" customHeight="true" spans="2:8">
       <c r="B26" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -4610,10 +4514,10 @@
     <row r="27" ht="20" customHeight="true" spans="1:8">
       <c r="A27" s="6"/>
       <c r="B27" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -4623,34 +4527,34 @@
     </row>
     <row r="28" ht="20" customHeight="true" spans="2:3">
       <c r="B28" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="29" ht="39" customHeight="true" spans="2:3">
       <c r="B29" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="true" spans="2:3">
       <c r="B30" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="true" spans="2:3">
       <c r="B31" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="true"/>
